--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\project\OtherAssets\Excle\A_Default\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E5775E-51AD-4DCB-BFB3-6EAB458F0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -84,7 +78,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +88,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +100,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,7 +110,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,7 +122,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,7 +132,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,7 +144,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,7 +154,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,7 +166,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,7 +176,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -204,7 +188,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -215,7 +198,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,12 +205,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <t>酒吧</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,7 +223,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,7 +235,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -263,7 +245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +257,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +267,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -300,7 +279,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,7 +289,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,7 +301,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +311,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +323,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -359,7 +333,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -372,7 +345,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,7 +355,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -396,7 +367,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -407,7 +377,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,6 +384,9 @@
     </r>
   </si>
   <si>
+    <t>普通餐位</t>
+  </si>
+  <si>
     <t>5_1</t>
   </si>
   <si>
@@ -424,6 +396,9 @@
     <t>5_6</t>
   </si>
   <si>
+    <t>二楼包间</t>
+  </si>
+  <si>
     <t>5_11</t>
   </si>
   <si>
@@ -439,6 +414,9 @@
     <t>5_21</t>
   </si>
   <si>
+    <t>餐具</t>
+  </si>
+  <si>
     <t>5_26</t>
   </si>
   <si>
@@ -466,12 +444,14 @@
     <t>6_1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <t>招待台</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -482,7 +462,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +483,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -515,7 +493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -537,7 +514,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,7 +524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,7 +545,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -581,35 +555,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>36</t>
     </r>
-  </si>
-  <si>
-    <t>普通餐位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二楼包间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招待台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,27 +584,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -649,9 +934,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -677,6 +1204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -689,21 +1219,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,31 +1561,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="8" max="8" width="34.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="110.1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>12001</v>
       </c>
@@ -1101,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>12002</v>
       </c>
@@ -1130,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>12003</v>
       </c>
@@ -1159,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>12004</v>
       </c>
@@ -1188,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>12005</v>
       </c>
@@ -1217,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>12006</v>
       </c>
@@ -1246,12 +1817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>12007</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1263,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1272,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>12008</v>
       </c>
@@ -1292,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1304,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>12009</v>
       </c>
@@ -1321,7 +1892,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1333,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>12010</v>
       </c>
@@ -1350,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1362,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12011</v>
       </c>
@@ -1379,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1391,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12012</v>
       </c>
@@ -1408,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -1420,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>12013</v>
       </c>
@@ -1437,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1449,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>12014</v>
       </c>
@@ -1466,7 +2037,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -1478,12 +2049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="8">
         <v>22001</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>63</v>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1495,7 +2066,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1507,12 +2078,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="8">
         <v>22002</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>34</v>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1524,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1536,12 +2107,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="8">
         <v>22003</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>64</v>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -1553,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1565,12 +2136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="8">
         <v>22004</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>37</v>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -1582,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1594,12 +2165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="8">
         <v>22005</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>39</v>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1611,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -1623,12 +2194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="8">
         <v>22006</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>65</v>
+      <c r="B22" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1640,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1652,12 +2223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="8">
         <v>22007</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>42</v>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -1669,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -1681,12 +2252,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="8">
         <v>22008</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>44</v>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -1698,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1710,12 +2281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="8">
         <v>22009</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>46</v>
+      <c r="B25" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1727,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>9</v>
@@ -1739,12 +2310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+    <row r="26" spans="1:9">
+      <c r="A26" s="11">
         <v>32001</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>48</v>
+      <c r="B26" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
@@ -1756,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1768,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+    <row r="27" spans="1:9">
+      <c r="A27" s="11">
         <v>32002</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>66</v>
+      <c r="B27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
@@ -1785,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1797,12 +2368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+    <row r="28" spans="1:9">
+      <c r="A28" s="11">
         <v>32003</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>51</v>
+      <c r="B28" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="4">
         <v>3</v>
@@ -1814,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1826,12 +2397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+    <row r="29" spans="1:9">
+      <c r="A29" s="11">
         <v>32004</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>53</v>
+      <c r="B29" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1843,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1855,12 +2426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+    <row r="30" spans="1:9">
+      <c r="A30" s="11">
         <v>32005</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>55</v>
+      <c r="B30" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
@@ -1872,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -1884,12 +2455,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+    <row r="31" spans="1:9">
+      <c r="A31" s="11">
         <v>32006</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>57</v>
+      <c r="B31" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1901,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -1913,12 +2484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+    <row r="32" spans="1:9">
+      <c r="A32" s="11">
         <v>32007</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>59</v>
+      <c r="B32" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -1930,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -1942,12 +2513,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+    <row r="33" spans="1:9">
+      <c r="A33" s="11">
         <v>32008</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>61</v>
+      <c r="B33" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -1959,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -1971,13 +2542,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -408,7 +408,7 @@
     <t>5_16</t>
   </si>
   <si>
-    <t>厨房（目前不用）</t>
+    <t>厨房</t>
   </si>
   <si>
     <t>5_21</t>
@@ -567,12 +567,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,9 +582,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,19 +603,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,23 +624,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +673,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +681,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,44 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,31 +734,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,151 +854,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,24 +925,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -968,17 +943,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,6 +981,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,10 +1031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,137 +1043,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1204,9 +1197,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1569,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1843,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2082,7 +2072,7 @@
       <c r="A18" s="8">
         <v>22002</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3">
@@ -2140,7 +2130,7 @@
       <c r="A20" s="8">
         <v>22004</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3">
@@ -2169,7 +2159,7 @@
       <c r="A21" s="8">
         <v>22005</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="3">
@@ -2188,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2227,7 +2217,7 @@
       <c r="A23" s="8">
         <v>22007</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="3">
@@ -2256,7 +2246,7 @@
       <c r="A24" s="8">
         <v>22008</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="3">
@@ -2285,7 +2275,7 @@
       <c r="A25" s="8">
         <v>22009</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="3">
@@ -2311,10 +2301,10 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>32001</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="4">
@@ -2340,7 +2330,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>32002</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -2369,10 +2359,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>32003</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="4">
@@ -2398,10 +2388,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>32004</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="4">
@@ -2427,10 +2417,10 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>32005</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="4">
@@ -2456,10 +2446,10 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>32006</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="4">
@@ -2485,10 +2475,10 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>32007</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="4">
@@ -2514,10 +2504,10 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>32008</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="4">
@@ -2543,8 +2533,8 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -205,7 +205,7 @@
     </r>
   </si>
   <si>
-    <t>酒吧</t>
+    <t>酒吧（注意）</t>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
     <t>5_1</t>
   </si>
   <si>
-    <t>高级餐位区</t>
+    <t>高级餐位区（废弃）</t>
   </si>
   <si>
     <t>5_6</t>
@@ -567,9 +567,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -582,14 +582,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,21 +649,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,14 +679,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -649,7 +688,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,37 +703,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -702,16 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,19 +734,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,157 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +925,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -939,6 +954,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,15 +991,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -985,32 +1006,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,10 +1031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,19 +1043,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,112 +1064,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1559,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1570,8 +1570,8 @@
     <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="34.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1830,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="16980" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -581,8 +581,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,9 +603,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,20 +627,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,14 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -660,14 +660,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,8 +679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,14 +695,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -719,7 +712,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +734,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,7 +788,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,19 +836,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,127 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,17 +928,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +948,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,15 +980,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1006,22 +1011,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,10 +1031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,133 +1043,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1559,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="8675"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -408,7 +408,7 @@
     <t>5_16</t>
   </si>
   <si>
-    <t>厨房</t>
+    <t>厨房（废弃）</t>
   </si>
   <si>
     <t>5_21</t>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>5_41</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>工具台</t>
+  </si>
+  <si>
+    <t>huijia</t>
+  </si>
+  <si>
+    <t>洗碗池</t>
+  </si>
+  <si>
+    <t>灶台</t>
   </si>
   <si>
     <t>广场花坛</t>
@@ -567,10 +582,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -583,9 +598,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,36 +634,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,9 +648,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,6 +682,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,14 +711,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -704,7 +726,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,14 +734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,19 +749,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,25 +869,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,133 +905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,15 +940,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -955,8 +961,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,18 +985,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1025,16 +1029,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,19 +1058,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,112 +1079,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,10 +1572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1644,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1992,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -2166,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2178,10 +2193,10 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2301,145 +2316,145 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="10">
-        <v>32001</v>
+      <c r="A26" s="8">
+        <v>22010</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4">
-        <v>3</v>
+      <c r="C26" s="3">
+        <v>2</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8">
+        <v>22011</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>-1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10">
-        <v>32002</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="8">
+        <v>22012</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4">
-        <v>3</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8">
+        <v>22013</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G27">
+      <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10">
-        <v>32003</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="8">
+        <v>22014</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10">
-        <v>32004</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>-1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10">
-        <v>32005</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3</v>
+      <c r="C30" s="3">
+        <v>2</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2447,25 +2462,25 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10">
-        <v>32006</v>
+        <v>32001</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -2476,10 +2491,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10">
-        <v>32007</v>
+        <v>32002</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -2488,27 +2503,27 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="10">
-        <v>32008</v>
+        <v>32003</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -2517,13 +2532,13 @@
         <v>-1</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -2532,9 +2547,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10">
+        <v>32004</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="10">
+        <v>32005</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="10">
+        <v>32006</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="10">
+        <v>32007</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10">
+        <v>32008</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="8675"/>
+    <workbookView windowWidth="26115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -583,14 +583,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,8 +610,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,52 +709,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -681,45 +719,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +734,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,7 +812,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,163 +896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,15 +925,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -952,11 +943,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,7 +986,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,17 +1002,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,145 +1031,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1559,19 +1559,19 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="21.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="29.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="28.225" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2178,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>2</v>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -583,9 +583,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -596,16 +596,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,8 +618,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,8 +671,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,29 +695,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,40 +725,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,15 +734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,31 +749,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,19 +887,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,127 +923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,6 +940,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -958,11 +991,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,54 +1023,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1040,16 +1031,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,133 +1058,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1574,19 +1574,19 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="21.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="29.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="28.225" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -426,7 +426,7 @@
     <t>5_31</t>
   </si>
   <si>
-    <t>卫生间</t>
+    <t>卫生间（废弃）</t>
   </si>
   <si>
     <t>5_36</t>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>灶台</t>
+  </si>
+  <si>
+    <t>cesuomen</t>
+  </si>
+  <si>
+    <t>jingzi</t>
+  </si>
+  <si>
+    <t>xishoupeng</t>
+  </si>
+  <si>
+    <t>diban</t>
   </si>
   <si>
     <t>广场花坛</t>
@@ -582,10 +594,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -593,6 +605,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,76 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,8 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,9 +668,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,6 +680,38 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,6 +729,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -749,19 +761,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,163 +899,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,30 +964,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -987,21 +975,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,11 +996,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,16 +1037,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,19 +1070,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,112 +1091,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,21 +1584,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="28.225" customWidth="1"/>
+    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2268,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2280,7 +2292,7 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2461,116 +2473,116 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="10">
-        <v>32001</v>
+      <c r="A31" s="8">
+        <v>22015</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="4">
-        <v>3</v>
+      <c r="C31" s="3">
+        <v>2</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8">
+        <v>22016</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>-1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10">
-        <v>32002</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8">
+        <v>22017</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8">
+        <v>22018</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G32">
+      <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="10">
-        <v>32003</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E33">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
         <v>6</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>-1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10">
-        <v>32004</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3</v>
-      </c>
-      <c r="D34" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>-1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2578,10 +2590,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10">
-        <v>32005</v>
+        <v>32001</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4">
         <v>3</v>
@@ -2590,13 +2602,13 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -2607,28 +2619,28 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="10">
-        <v>32006</v>
+        <v>32002</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2636,39 +2648,39 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="10">
-        <v>32007</v>
+        <v>32003</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="10">
-        <v>32008</v>
+        <v>32004</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
@@ -2677,13 +2689,13 @@
         <v>-1</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -2692,9 +2704,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="10">
+        <v>32005</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10">
+        <v>32006</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10">
+        <v>32007</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="10">
+        <v>32008</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -587,6 +587,12 @@
       </rPr>
       <t>36</t>
     </r>
+  </si>
+  <si>
+    <t>zhuozi</t>
+  </si>
+  <si>
+    <t>dengzi</t>
   </si>
 </sst>
 </file>
@@ -594,23 +600,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,8 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +631,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,6 +658,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -660,9 +674,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +705,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -699,17 +729,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,15 +745,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,13 +757,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -761,37 +767,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,145 +923,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,15 +958,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -979,6 +976,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -990,26 +1002,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,23 +1024,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,16 +1076,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,119 +1094,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1230,11 +1236,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1584,10 +1587,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2820,9 +2823,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10">
+        <v>32009</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="10">
+        <v>32010</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="27840" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -600,10 +600,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -615,7 +615,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,62 +688,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,15 +735,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,7 +745,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,187 +767,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,17 +976,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,21 +1007,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,22 +1029,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,145 +1064,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1589,19 +1589,19 @@
   <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="21.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="29.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="28.225" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="27840" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -593,9 +593,6 @@
   </si>
   <si>
     <t>dengzi</t>
-  </si>
-  <si>
-    <t>dizuo</t>
   </si>
 </sst>
 </file>
@@ -603,9 +600,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -631,8 +628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +645,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,22 +674,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +737,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,15 +745,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,14 +757,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -770,187 +767,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,6 +958,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -975,24 +987,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,28 +1020,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,151 +1043,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,21 +1587,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="21.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="29.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="28.225" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2881,35 +2878,6 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10">
-        <v>32011</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>11</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45">
-        <v>11</v>
-      </c>
-      <c r="H45">
-        <v>7</v>
-      </c>
-      <c r="I45">
         <v>1</v>
       </c>
     </row>

--- a/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
+++ b/project/OtherAssets/Excle/A_Default/建筑初始数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12390"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="BuildInital" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>dengzi</t>
+  </si>
+  <si>
+    <t>dizuo</t>
   </si>
 </sst>
 </file>
@@ -600,9 +603,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -628,16 +631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,21 +640,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,15 +654,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +724,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,7 +732,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,6 +752,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -767,187 +770,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,6 +961,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -972,26 +993,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,11 +1021,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,31 +1061,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,103 +1079,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,28 +1184,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,21 +1590,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="36.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="29.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="28.225" customWidth="1"/>
+    <col min="6" max="6" width="29.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="28.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2878,6 +2881,35 @@
         <v>2</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10">
+        <v>32011</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
     </row>
